--- a/diagrams/Tabla Evaluación.xlsx
+++ b/diagrams/Tabla Evaluación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salgo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salgo\Developer\tesis\shacl_integration\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161AA38-4804-47B2-8FD2-BA5A8FAFCD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BAD31A-823E-4489-A180-76DA67770CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{8286491A-E6B2-4F6D-8411-AC42031BBAB0}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
   <si>
-    <t xml:space="preserve">NUMBER OF INTEGRATIONS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER OF TRIPLES ALIGNMENT IN REFERENCE </t>
-  </si>
-  <si>
     <t>OPERATION TYPE</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>F-MEASURE</t>
+  </si>
+  <si>
+    <t>NUMBER OF INTEGRATIONS PERFORMED</t>
+  </si>
+  <si>
+    <t>NUMBER OF ALIGNMENTS IN REFERENCE</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,41 +797,41 @@
     <col min="10" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
@@ -850,18 +850,18 @@
         <v>0.90823734920028376</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>18</v>
@@ -880,18 +880,18 @@
         <v>0.86516708366808226</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
@@ -910,18 +910,18 @@
         <v>0.90386934122547402</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
@@ -940,18 +940,18 @@
         <v>0.95746455379482898</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>16</v>
@@ -970,18 +970,18 @@
         <v>0.9530440244987699</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -1000,18 +1000,18 @@
         <v>0.96351575456053062</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>13</v>
@@ -1030,18 +1030,18 @@
         <v>0.90907107401952769</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
@@ -1060,18 +1060,18 @@
         <v>0.98734177215189867</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
@@ -1090,18 +1090,18 @@
         <v>0.9093090472814529</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <v>11</v>
@@ -1120,18 +1120,18 @@
         <v>0.97061094240568224</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -1150,18 +1150,18 @@
         <v>0.91428261223603502</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -1180,18 +1180,18 @@
         <v>1</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -1210,18 +1210,18 @@
         <v>0.89655172413793105</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -1240,18 +1240,18 @@
         <v>0.97435897435897434</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -1270,18 +1270,18 @@
         <v>0.93617021276595747</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -1300,18 +1300,18 @@
         <v>0.96060700550878297</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -1330,18 +1330,18 @@
         <v>0.89258028792912514</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <v>17</v>
@@ -1360,18 +1360,18 @@
         <v>0.97198663582626577</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>25</v>
@@ -1390,18 +1390,18 @@
         <v>0.86954555731404015</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>25</v>
@@ -1420,18 +1420,18 @@
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -1450,18 +1450,18 @@
         <v>0.97729597054612394</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -1480,18 +1480,18 @@
         <v>0.97672038884625234</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -1510,18 +1510,18 @@
         <v>0.96843408293789968</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>15</v>
@@ -1540,18 +1540,18 @@
         <v>0.96704885858898881</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>19</v>
@@ -1570,18 +1570,18 @@
         <v>0.91821722198182609</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <v>19</v>
@@ -1600,18 +1600,18 @@
         <v>0.97182808965659062</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>20</v>
@@ -1630,18 +1630,18 @@
         <v>0.89362172926923711</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
@@ -1660,18 +1660,18 @@
         <v>1</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>9</v>
@@ -1690,18 +1690,18 @@
         <v>0.88230691852017429</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>9</v>
@@ -1720,18 +1720,18 @@
         <v>0.98301637343638759</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
@@ -1750,18 +1750,18 @@
         <v>0.94913829340058853</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
@@ -1780,18 +1780,18 @@
         <v>1</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>23</v>
@@ -1810,18 +1810,18 @@
         <v>0.8843643665978691</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
         <v>23</v>
@@ -1840,18 +1840,18 @@
         <v>0.99224024992441806</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>19</v>
@@ -1870,18 +1870,18 @@
         <v>0.90907107401952769</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
@@ -1900,18 +1900,18 @@
         <v>1</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2">
         <v>15</v>
@@ -1930,18 +1930,18 @@
         <v>0.93549073876942734</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
         <v>15</v>
@@ -1960,18 +1960,18 @@
         <v>0.96426721905748325</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
@@ -1990,18 +1990,18 @@
         <v>0.91174230057677652</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
         <v>10</v>
@@ -2020,18 +2020,18 @@
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2">
         <v>11</v>
@@ -2050,18 +2050,18 @@
         <v>0.89855710981385617</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2">
         <v>11</v>
@@ -2080,18 +2080,18 @@
         <v>1</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>15</v>
@@ -2110,18 +2110,18 @@
         <v>0.98800789353843033</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2">
         <v>15</v>
@@ -2140,18 +2140,18 @@
         <v>1</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>18</v>
@@ -2170,18 +2170,18 @@
         <v>0.89388521389926934</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
         <v>18</v>
@@ -2200,14 +2200,15 @@
         <v>0.91834524781023896</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>